--- a/NOTAS MODELO.xlsx
+++ b/NOTAS MODELO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alinaoganesyan/Desktop/Master Data Science/Entregables/Proyecto final/git-proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3837B8-0D96-A14A-A933-3878CB96D087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20C5D4-C090-C444-ABB7-7324B993A54A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{17C18971-99BB-D847-96DC-819A532C7878}"/>
   </bookViews>
@@ -50,29 +50,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: Predecir si un cliente va a contratar o no un producto en el próximo mes, basándonos en sus características (el modelo nos devolverá un número de 0 a 1 que será el % de probabilidad de compra) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Target:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Compra de un producto en un determinado mes </t>
     </r>
   </si>
   <si>
@@ -117,7 +94,30 @@
 - vector target =  y 
 variables del mes previo = x 
 hacemos train y est con x e y 
-luego le pasamos los clientes que no tienen producto y hacemos un predict  (predict.proba nos da el valor continuo que permite ordenar a los clientes) </t>
+luego le pasamos los clientes que no tienen producto y hacemos un predict  (predict.proba nos da el valor continuo que permite ordenar a los clientes)   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Compra de un producto en un determinado mes.</t>
     </r>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,27 +508,27 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="187" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/NOTAS MODELO.xlsx
+++ b/NOTAS MODELO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alinaoganesyan/Desktop/Master Data Science/Entregables/Proyecto final/git-proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20C5D4-C090-C444-ABB7-7324B993A54A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDEB796-62F9-4741-898C-5F8CC706982A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{17C18971-99BB-D847-96DC-819A532C7878}"/>
+    <workbookView xWindow="34480" yWindow="2020" windowWidth="28040" windowHeight="16940" xr2:uid="{17C18971-99BB-D847-96DC-819A532C7878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MODELO CLASIFICACIÓN</t>
   </si>
@@ -120,6 +120,34 @@
       <t xml:space="preserve"> Compra de un producto en un determinado mes.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Columnas interesantes para el modelo </t>
+  </si>
+  <si>
+    <t>customer_commercial_activity.entry_channel</t>
+  </si>
+  <si>
+    <t>customer_commercial_activity.segment</t>
+  </si>
+  <si>
+    <t>customer_sociodemographics.gender</t>
+  </si>
+  <si>
+    <t>customer_sociodemographics.region_code</t>
+  </si>
+  <si>
+    <t>customer_sociodemographics.salary</t>
+  </si>
+  <si>
+    <t>customer_sociodemographics.age</t>
+  </si>
+  <si>
+    <t>sales.month_sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decidir para qué producto vamos a hacer el modelo. 
+Juntar las tres tablas con info del cliente por identificador de cliente </t>
+  </si>
 </sst>
 </file>
 
@@ -142,12 +170,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -171,6 +205,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8843529-B38F-3442-B3D2-F182433DACEF}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +566,53 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/NOTAS MODELO.xlsx
+++ b/NOTAS MODELO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alinaoganesyan/Desktop/Master Data Science/Entregables/Proyecto final/git-proyecto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\DataScience\TFM_\TFM-EasyMoney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDEB796-62F9-4741-898C-5F8CC706982A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3057162E-5FEA-4C59-824E-6D55257B0921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34480" yWindow="2020" windowWidth="28040" windowHeight="16940" xr2:uid="{17C18971-99BB-D847-96DC-819A532C7878}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{17C18971-99BB-D847-96DC-819A532C7878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>MODELO CLASIFICACIÓN</t>
   </si>
@@ -147,6 +147,15 @@
   <si>
     <t xml:space="preserve">Decidir para qué producto vamos a hacer el modelo. 
 Juntar las tres tablas con info del cliente por identificador de cliente </t>
+  </si>
+  <si>
+    <t>pk_cid</t>
+  </si>
+  <si>
+    <t>pk.cid commercial_activity</t>
+  </si>
+  <si>
+    <t>pk.cid Sociodemographics</t>
   </si>
 </sst>
 </file>
@@ -224,9 +233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,94 +529,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8843529-B38F-3442-B3D2-F182433DACEF}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="169.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="187" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/NOTAS MODELO.xlsx
+++ b/NOTAS MODELO.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\DataScience\TFM_\TFM-EasyMoney\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alinaoganesyan/Desktop/Master Data Science/Entregables/Proyecto final/git-proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3057162E-5FEA-4C59-824E-6D55257B0921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B307F9B-F877-1945-8780-734533103F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{17C18971-99BB-D847-96DC-819A532C7878}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{17C18971-99BB-D847-96DC-819A532C7878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>MODELO CLASIFICACIÓN</t>
   </si>
@@ -157,12 +159,105 @@
   <si>
     <t>pk.cid Sociodemographics</t>
   </si>
+  <si>
+    <t xml:space="preserve">Las columnas que se llaman igual, deebrían tener el un prefico de la tabla al hacer merge? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar los datos de particiones a date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar si cambiar region_code por número o OHE, averiguar si el número tiene significado </t>
+  </si>
+  <si>
+    <t>DATA UNDERSTANDING</t>
+  </si>
+  <si>
+    <t>Análisis univariante de datos</t>
+  </si>
+  <si>
+    <t>Tamaño del dataset</t>
+  </si>
+  <si>
+    <t>Visualización directa de los datos</t>
+  </si>
+  <si>
+    <t>Tipo de atributos disponibles</t>
+  </si>
+  <si>
+    <t>Estadísticos descriptivos</t>
+  </si>
+  <si>
+    <t>Número de valores nulos</t>
+  </si>
+  <si>
+    <t>Distribución de los valores del target</t>
+  </si>
+  <si>
+    <t>Distribución de variables y correlación con el target</t>
+  </si>
+  <si>
+    <t>Eliminar columnas</t>
+  </si>
+  <si>
+    <t>DATA PREPARATION</t>
+  </si>
+  <si>
+    <t>Limpieza de atributos y transformación de variables</t>
+  </si>
+  <si>
+    <t>NúmericasID a categóricas</t>
+  </si>
+  <si>
+    <t>Imputación de nulos</t>
+  </si>
+  <si>
+    <t>Eliminación de atributos de baja varianza</t>
+  </si>
+  <si>
+    <t>Variables de fecha</t>
+  </si>
+  <si>
+    <t>Tratamiento de variables categóricas</t>
+  </si>
+  <si>
+    <t>MODELING</t>
+  </si>
+  <si>
+    <t>Train / Test Split</t>
+  </si>
+  <si>
+    <t>Generación de la partición de validación</t>
+  </si>
+  <si>
+    <t>Model definition</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier</t>
+  </si>
+  <si>
+    <t>Model evaluation</t>
+  </si>
+  <si>
+    <t>opción 1: A través de los resultados</t>
+  </si>
+  <si>
+    <t>Opción 2: A través de la matriz de confusión</t>
+  </si>
+  <si>
+    <t>Opción 3: Usando el módulo metrics</t>
+  </si>
+  <si>
+    <t>Opción 4: Usando el modelo</t>
+  </si>
+  <si>
+    <t>Evalución de modelos alternativos (opcional)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +267,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -205,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -215,6 +318,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,9 +339,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +379,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -379,7 +485,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -531,106 +637,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8843529-B38F-3442-B3D2-F182433DACEF}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="169.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="187" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -639,4 +745,181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A22B2-D712-3D46-9154-7F2260EF293F}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233C1A98-EC10-F243-BA63-14FF240AC21E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>